--- a/excelwithdataprovider/datafiles/data.xlsx
+++ b/excelwithdataprovider/datafiles/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Md.Abdul Hannan\eclipse-workspace\excelwithdataprovider\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hannan\project\Integration of Excel with Dataprovider\excelwithdataprovider\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8303F75E-4028-451F-93E2-B828E6D3515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0FB9CD-E00D-445F-999D-CA4A6EE57FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Email</t>
   </si>
@@ -36,12 +36,6 @@
     <t>result</t>
   </si>
   <si>
-    <t>hannan@orangetoolz.com</t>
-  </si>
-  <si>
-    <t>qwerty</t>
-  </si>
-  <si>
     <t>abc@gmail.com</t>
   </si>
   <si>
@@ -49,6 +43,15 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>rr</t>
+  </si>
+  <si>
+    <t>test@orangetoolz.com</t>
+  </si>
+  <si>
+    <t>htyt</t>
   </si>
 </sst>
 </file>
@@ -380,7 +383,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,35 +406,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>4353535</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
